--- a/RainbowPlan/LoadWinFrom/bin/Debug/test.xlsx
+++ b/RainbowPlan/LoadWinFrom/bin/Debug/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16871" windowHeight="7595" activeTab="1"/>
+    <workbookView windowWidth="11375" windowHeight="7595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1031">
   <si>
     <t>ID</t>
   </si>
@@ -26,46 +26,3088 @@
     <t>小五你好！</t>
   </si>
   <si>
+    <t>Learning is a cumulative process.</t>
+  </si>
+  <si>
+    <t>运气王到此02</t>
+  </si>
+  <si>
     <t>Eng</t>
   </si>
   <si>
     <t>Cn</t>
   </si>
   <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>嗨</t>
-  </si>
-  <si>
     <t>abandon</t>
   </si>
   <si>
-    <t>vt.丢弃；放弃，抛</t>
+    <t>vt.丢弃；放弃，抛弃</t>
   </si>
   <si>
     <t>ability</t>
   </si>
   <si>
-    <t>n.能力；能耐，本</t>
+    <t>n.能力；能耐，本领</t>
   </si>
   <si>
     <t>abnormal</t>
   </si>
   <si>
-    <t>a.不正常的；变态</t>
+    <t>a.不正常的；变态的</t>
   </si>
   <si>
     <t>aboard</t>
   </si>
   <si>
-    <t>ad.在船(车)上；上</t>
+    <t>ad.在船(车)上；上船</t>
   </si>
   <si>
     <t>abroad</t>
   </si>
   <si>
-    <t>ad.(在)国外；到</t>
+    <t>ad.(在)国外；到处</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>n.缺席，不在场；缺乏</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>a.不在场的；缺乏的</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>a.绝对的；纯粹的</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>ad.完全地；绝对地</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>vt.吸收；使专心</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>a.抽象的</t>
+  </si>
+  <si>
+    <t>abundant</t>
+  </si>
+  <si>
+    <t>a.丰富的；大量的</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>vt.滥用；虐待</t>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>a.学院的；学术的</t>
+  </si>
+  <si>
+    <t>academy</t>
+  </si>
+  <si>
+    <t>n.私立中学；专科院校</t>
+  </si>
+  <si>
+    <t>accelerate</t>
+  </si>
+  <si>
+    <t>vt.(使)加快；促进</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>n.加速；加速度</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>n.口音，腔调；重音</t>
+  </si>
+  <si>
+    <t>acceptable</t>
+  </si>
+  <si>
+    <t>a.可接受的，合意的</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>n.接受，验收；承认</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>n.接近；通道，入口</t>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>n.同谋，从犯；附件</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>n.意外的；事故</t>
+  </si>
+  <si>
+    <t>accidental</t>
+  </si>
+  <si>
+    <t>a.偶然的；非本质的</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>vt.容纳；供应，供给</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>n.招待设备；预定铺位</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>vt.陪伴，陪同；伴随</t>
+  </si>
+  <si>
+    <t>accomplish</t>
+  </si>
+  <si>
+    <t>vt.达到(目的)；完成</t>
+  </si>
+  <si>
+    <t>accord</t>
+  </si>
+  <si>
+    <t>vt.使一致；给予</t>
+  </si>
+  <si>
+    <t>accordance</t>
+  </si>
+  <si>
+    <t>n.一致；和谐；授予</t>
+  </si>
+  <si>
+    <t>accordingly</t>
+  </si>
+  <si>
+    <t>ad.因此，所以；照着</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>n.记述；解释；帐目</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>vt.积累</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>n.准确(性)；准确度</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>a.准确的，正确无误的</t>
+  </si>
+  <si>
+    <t>accuse</t>
+  </si>
+  <si>
+    <t>vt.指责；归咎于</t>
+  </si>
+  <si>
+    <t>accustom</t>
+  </si>
+  <si>
+    <t>vt.使习惯</t>
+  </si>
+  <si>
+    <t>accustomed</t>
+  </si>
+  <si>
+    <t>a.惯常的；习惯的</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>vt.完成，实现；达到</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>n.完成；成就，成绩</t>
+  </si>
+  <si>
+    <t>acid</t>
+  </si>
+  <si>
+    <t>n.酸；酸的，酸性的</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>n.认识；了解；熟人</t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>vt.取得；获得；学到</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>n.英亩(=6.07亩)</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>vi.行动；见效</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>n.行动；作用；功能</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>a.活跃的；积极的</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>n.活动；活力；行动</t>
+  </si>
+  <si>
+    <t>actress</t>
+  </si>
+  <si>
+    <t>n.女演员</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>ad.实际上；竟然</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>a.尖的，锐的；敏锐的</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>vt.使适应；改编</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>vt.添加，附加，掺加</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>n.加，加法；附加物</t>
+  </si>
+  <si>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>a.附加的，追加的</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>n.地址；演说；谈吐</t>
+  </si>
+  <si>
+    <t>adequate</t>
+  </si>
+  <si>
+    <t>a.足够的；可以胜任的</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>n.形容词</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>vt.调整，调节；校正</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>n.管理；管理部门</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>vt.钦佩，羡慕，赞赏</t>
+  </si>
+  <si>
+    <t>admission</t>
+  </si>
+  <si>
+    <t>n.允许进入；承认</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>vt.承认；准许…进入</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>vt.收养；采用；采取</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>vi.前进；提高</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>a.先进的；高级的</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>n.优点，优势；好处</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>n.冒险；惊险活动</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>n.副词</t>
+  </si>
+  <si>
+    <t>advertisement</t>
+  </si>
+  <si>
+    <t>n.广告；登广告</t>
+  </si>
+  <si>
+    <t>advisable</t>
+  </si>
+  <si>
+    <t>n.明智的；可取的</t>
+  </si>
+  <si>
+    <t>advise</t>
+  </si>
+  <si>
+    <t>vt.劝告；建议；通知</t>
+  </si>
+  <si>
+    <t>aeroplane</t>
+  </si>
+  <si>
+    <t>n.飞机</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>n.事情，事件；事务</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>vt.影响；感动</t>
+  </si>
+  <si>
+    <t>affection</t>
+  </si>
+  <si>
+    <t>n.慈爱，爱；爱慕</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>vt.担负得起…；提供</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>a.非洲的</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>n.经办；代理；代理处</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>n.代理人，代理商</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>a.侵略的；好斗的</t>
+  </si>
+  <si>
+    <t>agony</t>
+  </si>
+  <si>
+    <t>n.极度痛苦</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>n.协定，协议；同意</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>n.农业，农艺；农学</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>n.帮助，救护；助手</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>n.飞机，飞行器</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>n.航空公司；航线</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>n.机场，航空站</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>n.惊恐，忧虑；警报</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>n.酒精，乙醇</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>vt.允许，准许；任</t>
+  </si>
+  <si>
+    <t>alloy</t>
+  </si>
+  <si>
+    <t>n.合金；(金属的)成色</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>a.单独的</t>
+  </si>
+  <si>
+    <t>alphabet</t>
+  </si>
+  <si>
+    <t>n.字母表，字母系统</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>vt.改变，变更；改做</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>n.替换物；取舍，抉择</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>conj.尽管，虽然</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>n.高，高度；高处</t>
+  </si>
+  <si>
+    <t>altogether</t>
+  </si>
+  <si>
+    <t>ad.完全；总而言之</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>n.铝</t>
+  </si>
+  <si>
+    <t>amaze</t>
+  </si>
+  <si>
+    <t>vt.使惊奇，使惊愕</t>
+  </si>
+  <si>
+    <t>ambition</t>
+  </si>
+  <si>
+    <t>n.雄心，抱负，野心</t>
+  </si>
+  <si>
+    <t>ambulance</t>
+  </si>
+  <si>
+    <t>n.救护车；野战医院</t>
+  </si>
+  <si>
+    <t>amongst</t>
+  </si>
+  <si>
+    <t>prep在…之中(=among)</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>n.总数；数量；和</t>
+  </si>
+  <si>
+    <t>ampere</t>
+  </si>
+  <si>
+    <t>n.安培</t>
+  </si>
+  <si>
+    <t>amplify</t>
+  </si>
+  <si>
+    <t>vt.放大，增强；扩大</t>
+  </si>
+  <si>
+    <t>amuse</t>
+  </si>
+  <si>
+    <t>vt.逗…乐；给…娱乐</t>
+  </si>
+  <si>
+    <t>analyse</t>
+  </si>
+  <si>
+    <t>vt.分析，分解，解析</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>n.分析，分解，解析</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>n.细菌</t>
+  </si>
+  <si>
+    <t>badminton</t>
+  </si>
+  <si>
+    <t>n.羽毛球</t>
+  </si>
+  <si>
+    <t>baggage</t>
+  </si>
+  <si>
+    <t>n.行李</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>vt.烤，烘，焙；烧硬</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>vt.使平衡；称</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>n.乐队；带；波段</t>
+  </si>
+  <si>
+    <t>bang</t>
+  </si>
+  <si>
+    <t>n.巨响，枪声；猛击</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>n.旗，旗帜，横幅</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>n.酒吧间；条，杆；栅</t>
+  </si>
+  <si>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>n.理发师</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>a.赤裸的；仅仅的</t>
+  </si>
+  <si>
+    <t>bargain</t>
+  </si>
+  <si>
+    <t>n.交易</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>n.吠叫声</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>n.谷仓；牲口棚</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>n.桶；圆筒；枪管</t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>n.栅栏，屏障；障碍</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>a.基本的，基础的</t>
+  </si>
+  <si>
+    <t>basically</t>
+  </si>
+  <si>
+    <t>ad.基本上</t>
+  </si>
+  <si>
+    <t>basin</t>
+  </si>
+  <si>
+    <t>n.盆，洗脸盆；盆地</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>n.基础，根据</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>n.球拍；短棍；蝙蝠</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>n.浴，洗澡；浴缸</t>
+  </si>
+  <si>
+    <t>bathe</t>
+  </si>
+  <si>
+    <t>vt.给…洗澡；弄湿</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>n.浴室；盥洗室</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>n.电池；一套，一组</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>n.战役；斗争</t>
+  </si>
+  <si>
+    <t>bay</t>
+  </si>
+  <si>
+    <t>n.湾；山脉中的凹处</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>n.海滩，湖滩，河滩</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>n.梁；横梁；束，柱</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>n.豆，蚕豆</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>n.熊；粗鲁的人</t>
+  </si>
+  <si>
+    <t>vt.容忍；负担；生育</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>n.胡须，络腮胡子</t>
+  </si>
+  <si>
+    <t>beast</t>
+  </si>
+  <si>
+    <t>n.兽，野兽；牲畜</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.打，敲；打败</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>a.美的，美丽的</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>n.牛肉；菜牛</t>
+  </si>
+  <si>
+    <t>beg</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.乞求；请求</t>
+  </si>
+  <si>
+    <t>beggar</t>
+  </si>
+  <si>
+    <t>n.乞丐，穷人</t>
+  </si>
+  <si>
+    <t>behalf</t>
+  </si>
+  <si>
+    <t>n.利益，维护，支持</t>
+  </si>
+  <si>
+    <t>behave</t>
+  </si>
+  <si>
+    <t>vi.表现，举止；运转</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>n.行为，举止，态度</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>n.存在；生物；生命</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>n.信任，相信；信念</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>vt.相信；认为</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>n.钟，铃，门铃；钟声</t>
+  </si>
+  <si>
+    <t>belong</t>
+  </si>
+  <si>
+    <t>vi.属于，附属</t>
+  </si>
+  <si>
+    <t>beloved</t>
+  </si>
+  <si>
+    <t>a.为…的爱的</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>n.带，腰带；皮带；区</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>n.长凳，条凳；工作台</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>vt.使弯曲</t>
+  </si>
+  <si>
+    <t>beneath</t>
+  </si>
+  <si>
+    <t>prep.在…下方</t>
+  </si>
+  <si>
+    <t>beneficial</t>
+  </si>
+  <si>
+    <t>a.有利的，有益的</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>n.利益；恩惠；津贴</t>
+  </si>
+  <si>
+    <t>berry</t>
+  </si>
+  <si>
+    <t>n.浆果(如草莓等)</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
+    <t>prep.在…旁边</t>
+  </si>
+  <si>
+    <t>besides</t>
+  </si>
+  <si>
+    <t>ad.而且prep.除…之外</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.&amp;n.打赌</t>
+  </si>
+  <si>
+    <t>betray</t>
+  </si>
+  <si>
+    <t>vt.背叛；辜负；泄漏</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>prep.在…的那边</t>
+  </si>
+  <si>
+    <t>Bible</t>
+  </si>
+  <si>
+    <t>n.基督教《圣经》</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>n.账单；招贴；票据</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>num.万亿(英)</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>vt.捆绑；包扎；装钉</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>n.生物学；生态学</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>n.生日，诞生的日期</t>
+  </si>
+  <si>
+    <t>biscuit</t>
+  </si>
+  <si>
+    <t>n.(英)饼干；(美)软饼</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>vt.咬，叮，螫；剌穿</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>a.痛苦的；严寒的</t>
+  </si>
+  <si>
+    <t>bitterly</t>
+  </si>
+  <si>
+    <t>ad.苦苦地；悲痛地</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>n.刀刃，刀片；叶片</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>vt.责备，把…归咎于</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>a.空白的</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>n.毛毯，毯子，羊毛毯</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>n.爆炸，冲击波</t>
+  </si>
+  <si>
+    <t>blaze</t>
+  </si>
+  <si>
+    <t>n.火；闪光</t>
+  </si>
+  <si>
+    <t>bleed</t>
+  </si>
+  <si>
+    <t>vi.出血，流血；泌脂</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.&amp;n.混和</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>vt.为…祝福</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>a.瞎的；盲目的</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>n.街区</t>
+  </si>
+  <si>
+    <t>bloom</t>
+  </si>
+  <si>
+    <t>n.花；开花，开花期</t>
+  </si>
+  <si>
+    <t>blossom</t>
+  </si>
+  <si>
+    <t>n.花，开花</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>vi.吹，吹动；吹响</t>
+  </si>
+  <si>
+    <t>boast</t>
+  </si>
+  <si>
+    <t>vi.自夸</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>a.大胆的；冒失的</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>n.螺栓；插销</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>n.BoB!!!</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>n.联结，联系；公债</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>n.骨，骨骼</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>n.靴子，长统靴</t>
+  </si>
+  <si>
+    <t>booth</t>
+  </si>
+  <si>
+    <t>n.货摊；公用电话亭</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>n.边，边缘；边界</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>vt.使厌烦；钻，挖</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>a.天生的；出生的</t>
+  </si>
+  <si>
+    <t>bosom</t>
+  </si>
+  <si>
+    <t>n.胸，胸部；内心</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>n.老板，上司</t>
+  </si>
+  <si>
+    <t>bother</t>
+  </si>
+  <si>
+    <t>vt.烦扰，迷惑</t>
+  </si>
+  <si>
+    <t>bough</t>
+  </si>
+  <si>
+    <t>n.树枝</t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>vi.反跳，弹起；跳起</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>a.一定的；有义务的</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>n.分界线，办界</t>
+  </si>
+  <si>
+    <t>bow</t>
+  </si>
+  <si>
+    <t>n.弓；蝴蝶结；鞠躬</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>n.碗，钵；碗状物</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>n.箱，盒；包箱；拳击vi.打拳</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>n.脑，脑髓；脑力</t>
+  </si>
+  <si>
+    <t>brake</t>
+  </si>
+  <si>
+    <t>n.闸，刹车</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>n.树枝；分部；分科</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>n.商品；烙印</t>
+  </si>
+  <si>
+    <t>brandy</t>
+  </si>
+  <si>
+    <t>n.白兰地酒</t>
+  </si>
+  <si>
+    <t>brass</t>
+  </si>
+  <si>
+    <t>n.黄铜；黄铜器</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>n.宽度，幅度；幅面</t>
+  </si>
+  <si>
+    <t>breathe</t>
+  </si>
+  <si>
+    <t>vi.呼吸</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>n.品种</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>n.微风，和风</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>n.砖，砖块；砖状物</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>a.简短的；短暂的</t>
+  </si>
+  <si>
+    <t>brighten</t>
+  </si>
+  <si>
+    <t>vt.使发光；使快活</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>a.光辉的；卓越的</t>
+  </si>
+  <si>
+    <t>brim</t>
+  </si>
+  <si>
+    <t>n.边，边缘；帽沿</t>
+  </si>
+  <si>
+    <t>brisk</t>
+  </si>
+  <si>
+    <t>a.活泼的；清新的</t>
+  </si>
+  <si>
+    <t>bristle</t>
+  </si>
+  <si>
+    <t>n.短而硬的毛；鬃毛</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>n.不列颠，英国</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>a.不列颠的，英联邦的</t>
+  </si>
+  <si>
+    <t>brittle</t>
+  </si>
+  <si>
+    <t>a.脆的；易损坏的</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>n.广播，播音</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>a.被打碎的，骨折的</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>n.青铜；青铜制品</t>
+  </si>
+  <si>
+    <t>brood</t>
+  </si>
+  <si>
+    <t>n.同窝幼鸟</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>n.洋白菜，卷心菜</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>n.小屋；船舱，机舱</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>n.橱，柜；内阁</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>n.缆，索；电缆；电报</t>
+  </si>
+  <si>
+    <t>cafeteria</t>
+  </si>
+  <si>
+    <t>n.自助食堂</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>n.计算器，计算者</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>n.日历，历书；历法</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>n.骆驼</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>n.照相机，摄影机</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>n.野营，营地，兵营</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>n.战役；运动</t>
+  </si>
+  <si>
+    <t>campus</t>
+  </si>
+  <si>
+    <t>n.校园，学校场地</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>n.加拿大</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>a.加拿大的</t>
+  </si>
+  <si>
+    <t>canal</t>
+  </si>
+  <si>
+    <t>n.运河；沟渠；管</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>vt.取消，撤消；删去</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>n.癌，癌症，肿瘤</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>n.候选人；投考者</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>n.蜡烛；烛形物；烛光</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>n.糖果；砂糖结晶</t>
+  </si>
+  <si>
+    <t>cannon</t>
+  </si>
+  <si>
+    <t>n.大炮，火炮；榴弹炮</t>
+  </si>
+  <si>
+    <t>canoe</t>
+  </si>
+  <si>
+    <t>n.独木舟，皮艇，划子</t>
+  </si>
+  <si>
+    <t>canteen</t>
+  </si>
+  <si>
+    <t>n.小卖部；临时餐室</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>n.粗帆布；一块油画布</t>
+  </si>
+  <si>
+    <t>capable</t>
+  </si>
+  <si>
+    <t>a.有能力的，有才能的</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>n.容量；能力；能量</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>n.资本，资金；首都</t>
+  </si>
+  <si>
+    <t>captain</t>
+  </si>
+  <si>
+    <t>n.陆军上尉；队长</t>
+  </si>
+  <si>
+    <t>captive</t>
+  </si>
+  <si>
+    <t>n.俘虏，被监禁的人</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>vt.捕获，俘获；夺得</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>n.碳</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>vi.关心，介意</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>n.生涯，职业，经历</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>a.仔细的；细致的</t>
+  </si>
+  <si>
+    <t>careless</t>
+  </si>
+  <si>
+    <t>a.粗心的，漫不经心的</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>n.船货，货物</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>n.木工，木匠</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>n.地毯，毡毯，毛毯</t>
+  </si>
+  <si>
+    <t>carriage</t>
+  </si>
+  <si>
+    <t>n.客车厢；四轮马车</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>n.运输工具；运载工具</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>n.胡罗卜</t>
+  </si>
+  <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>vt.携带；运载；传送</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>n.二轮运货马车</t>
+  </si>
+  <si>
+    <t>carve</t>
+  </si>
+  <si>
+    <t>vt.刻，雕刻；切开</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>n.情况；事实；病例</t>
+  </si>
+  <si>
+    <t>n.箱(子)，盒(子)，套</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>n.现金，现款</t>
+  </si>
+  <si>
+    <t>cassette</t>
+  </si>
+  <si>
+    <t>n.盒式录音带；盒子</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>vt.投，扔，抛；浇铸</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>n.城堡；巨大建筑物</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>a.偶然的；随便的</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <t>n.目录，目录册</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>vt.捉住；赶上；领会</t>
+  </si>
+  <si>
+    <t>cathedral</t>
+  </si>
+  <si>
+    <t>n.总教堂；大教堂</t>
+  </si>
+  <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>n.牛；牲口，家畜</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>n.原因，理由；事业</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>n.山洞，洞穴，窑洞</t>
+  </si>
+  <si>
+    <t>cease</t>
+  </si>
+  <si>
+    <t>vi.&amp;vi.&amp;n.停止，停息</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>n.天花板，顶蓬</t>
+  </si>
+  <si>
+    <t>celebrate</t>
+  </si>
+  <si>
+    <t>vt.庆祝；歌颂，赞美</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>n.细胞；小房间</t>
+  </si>
+  <si>
+    <t>cellar</t>
+  </si>
+  <si>
+    <t>n.地窑，地下室</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>n.水泥；胶泥</t>
+  </si>
+  <si>
+    <t>centigrade</t>
+  </si>
+  <si>
+    <t>a.百分度的</t>
+  </si>
+  <si>
+    <t>centimetre</t>
+  </si>
+  <si>
+    <t>n.公分，厘米</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>a.中心的；主要的</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>n.中心；中枢</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>n.世纪，百年</t>
+  </si>
+  <si>
+    <t>ceremony</t>
+  </si>
+  <si>
+    <t>n.典礼，仪式；礼节</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>ad.一定，必定；当然</t>
+  </si>
+  <si>
+    <t>certainty</t>
+  </si>
+  <si>
+    <t>n.必然；肯定</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>n.证书，证件，执照</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>n.链，链条，项圈</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>n.挑战；要求，需要</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>n.会议室；房间；腔</t>
+  </si>
+  <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>n.冠军，得胜者</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>n.机会，机遇；可能性</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>n.改变，变化；零钱</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>n.海峡；渠道；频道</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>n.章，回，篇</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>n.性格；特性；角色</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t>a.特有的</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>vt.索价；控告</t>
+  </si>
+  <si>
+    <t>charity</t>
+  </si>
+  <si>
+    <t>n.施舍；慈善事业</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>a.迷人的，可爱的</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>n.图，图表；海图</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>n.追逐，追赶，追求</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>a.廉价的；劣质的</t>
+  </si>
+  <si>
+    <t>cheat</t>
+  </si>
+  <si>
+    <t>vt.骗取；哄</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>vt.检查；制止</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>n.面颊，脸蛋</t>
+  </si>
+  <si>
+    <t>cheer</t>
+  </si>
+  <si>
+    <t>vt.使振作；欢呼</t>
+  </si>
+  <si>
+    <t>cheerful</t>
+  </si>
+  <si>
+    <t>a.快乐的，愉快的</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>n.乳酪，干酪</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>a.化学的</t>
+  </si>
+  <si>
+    <t>chemist</t>
+  </si>
+  <si>
+    <t>n.化学家；药剂师</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>n.化学</t>
+  </si>
+  <si>
+    <t>cheque</t>
+  </si>
+  <si>
+    <t>n.支票</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>n.樱桃；樱桃树</t>
+  </si>
+  <si>
+    <t>chess</t>
+  </si>
+  <si>
+    <t>n.棋；国际象棋</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>n.胸腔，胸膛；箱子</t>
+  </si>
+  <si>
+    <t>chew</t>
+  </si>
+  <si>
+    <t>vt.咀嚼，嚼碎</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>n.小鸡，小鸟；鸡肉</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>a.主要的；首席的</t>
+  </si>
+  <si>
+    <t>childhood</t>
+  </si>
+  <si>
+    <t>n.童年，幼年；早期</t>
+  </si>
+  <si>
+    <t>childish</t>
+  </si>
+  <si>
+    <t>a.孩子的；幼稚的</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>vt.使变冷</t>
+  </si>
+  <si>
+    <t>chimney</t>
+  </si>
+  <si>
+    <t>n.烟囱，烟筒；玻璃罩</t>
+  </si>
+  <si>
+    <t>chin</t>
+  </si>
+  <si>
+    <t>n.颏，下巴</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>n.瓷器，瓷料</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>n.巧克力；巧克力糖</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>n.选择，抉择</t>
+  </si>
+  <si>
+    <t>choke</t>
+  </si>
+  <si>
+    <t>vt.使窒息；塞满</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>vt.投递，送交；发表</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>n.投递；交付；分娩</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>vt.要求；需要；询问</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>n.民主，民主制</t>
+  </si>
+  <si>
+    <t>democratic</t>
+  </si>
+  <si>
+    <t>a.民主的，民主政体的</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>vt.说明；论证；表露</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>a.密集的；浓厚的</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>n.密集，稠密；密度</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>vt.否定；拒绝相信</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>vi.离开，起程；出发</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>n.部，司，局，处，系</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>n.离开，出发，起程</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t>vi.依靠，依赖；相信</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>a.依靠的，依赖的</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>vt.使沉淀；存放</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <t>vt.使沮丧；按下</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>n.深度；深厚；深处</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>vt.取得</t>
+  </si>
+  <si>
+    <t>descend</t>
+  </si>
+  <si>
+    <t>vi.下来，下降；下倾</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>vt.形容；描写，描绘</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>n.描写，形容；种类</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>n.沙漠</t>
+  </si>
+  <si>
+    <t>deserve</t>
+  </si>
+  <si>
+    <t>vt.应受，值得</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>vt.设计</t>
+  </si>
+  <si>
+    <t>desirable</t>
+  </si>
+  <si>
+    <t>a.值得相望的；可取的</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>vt.相望；要求</t>
+  </si>
+  <si>
+    <t>despair</t>
+  </si>
+  <si>
+    <t>n.绝望</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>a.拼死的；绝望的</t>
+  </si>
+  <si>
+    <t>despise</t>
+  </si>
+  <si>
+    <t>vt.鄙视，蔑视</t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>prep.不管，不顾</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>n.目的地，终点；目标</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>vt.破坏；消灭；打破</t>
+  </si>
+  <si>
+    <t>destruction</t>
+  </si>
+  <si>
+    <t>n.破坏，毁灭，消灭</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>n.细节；枝节；零件</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>vt.察觉，发觉；侦察</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>n.察觉，发觉；侦察</t>
+  </si>
+  <si>
+    <t>determination</t>
+  </si>
+  <si>
+    <t>n.决心；决定；确定</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>vt.决定；查明；决心</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>vt.发展；形成；开发</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>n.发展；开发；生长</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>n.器械，装置；设计</t>
+  </si>
+  <si>
+    <t>devil</t>
+  </si>
+  <si>
+    <t>n.魔鬼，恶魔</t>
+  </si>
+  <si>
+    <t>devise</t>
+  </si>
+  <si>
+    <t>vt.设计，发明</t>
+  </si>
+  <si>
+    <t>devote</t>
+  </si>
+  <si>
+    <t>vt.将…奉献，致力于</t>
+  </si>
+  <si>
+    <t>dew</t>
+  </si>
+  <si>
+    <t>n.露，露水</t>
+  </si>
+  <si>
+    <t>diagram</t>
+  </si>
+  <si>
+    <t>n.图解，图表，简图</t>
+  </si>
+  <si>
+    <t>dial</t>
+  </si>
+  <si>
+    <t>n.钟面；拨号盘</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>n.方言，土语，地方话</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>n.对话，对白</t>
+  </si>
+  <si>
+    <t>preface</t>
+  </si>
+  <si>
+    <t>n.序言，前言，引语</t>
+  </si>
+  <si>
+    <t>preferable</t>
+  </si>
+  <si>
+    <t>a.更可取的，更好的</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>n.偏爱，优先；优先权</t>
+  </si>
+  <si>
+    <t>prejudice</t>
+  </si>
+  <si>
+    <t>n.偏见，成见</t>
+  </si>
+  <si>
+    <t>preliminary</t>
+  </si>
+  <si>
+    <t>a.预备的，初步的</t>
+  </si>
+  <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>n.总理，首相</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>n.准备，预备；制备</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.准备，预备</t>
+  </si>
+  <si>
+    <t>preposition</t>
+  </si>
+  <si>
+    <t>n.前置词，介词</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <t>vt.命令；处(方)</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>n.出席，到场；在</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>a.现在的</t>
+  </si>
+  <si>
+    <t>vt.赠送;</t>
+  </si>
+  <si>
+    <t>n.礼物，赠送物</t>
+  </si>
+  <si>
+    <t>presently</t>
+  </si>
+  <si>
+    <t>ad.一会儿；目前</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>vt.保护；保存；腌渍</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>n.总统；校长；会长</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>vt.压，按，揿；催促</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>n.压力；压力；压，按</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>vt.假托，借口vi.假装</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>a.漂亮的，标致的</t>
+  </si>
+  <si>
+    <t>prevail</t>
+  </si>
+  <si>
+    <t>vi.胜，优胜；流行</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>vt.预防，防止；阻止</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>a.先的；前的</t>
+  </si>
+  <si>
+    <t>previously</t>
+  </si>
+  <si>
+    <t>ad.先前，预先</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>n.教士，牧师，神父</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>ad.首先；主要地</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>a.最初的；基本的</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>a.首要的</t>
+  </si>
+  <si>
+    <t>liberty</t>
+  </si>
+  <si>
+    <t>n.自由；释放；许可</t>
+  </si>
+  <si>
+    <t>librarian</t>
+  </si>
+  <si>
+    <t>n.图书馆馆长</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>n.图书馆；藏书</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>n.许可；执照</t>
+  </si>
+  <si>
+    <t>lick</t>
+  </si>
+  <si>
+    <t>vt.舔；舔吃</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>n.盖子，盖，囊盖</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>vi.躺，平放；位于</t>
+  </si>
+  <si>
+    <t>vi.说谎，欺骗</t>
+  </si>
+  <si>
+    <t>lieutenant</t>
+  </si>
+  <si>
+    <t>n.陆军中尉；副职官员</t>
+  </si>
+  <si>
+    <t>lighten</t>
+  </si>
+  <si>
+    <t>vt.照亮，使明亮</t>
+  </si>
+  <si>
+    <t>lightly</t>
+  </si>
+  <si>
+    <t>ad.轻轻地，轻松地</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>n.闪电，闪电放电</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>vt.喜欢；喜爱；希望</t>
+  </si>
+  <si>
+    <t>prep.像，如；像要</t>
+  </si>
+  <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>a.可能的</t>
+  </si>
+  <si>
+    <t>likewise</t>
+  </si>
+  <si>
+    <t>ad.同样地；也，又</t>
+  </si>
+  <si>
+    <t>limb</t>
+  </si>
+  <si>
+    <t>n.肢，臂，翼；树枝</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>n.石灰</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>n.限度；限制；范围</t>
+  </si>
+  <si>
+    <t>limitation</t>
+  </si>
+  <si>
+    <t>n.限制；限度，局限</t>
+  </si>
+  <si>
+    <t>instinct</t>
+  </si>
+  <si>
+    <t>n.本能；直觉；生性</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>n.研究所；学院</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>n.协会；制度，习俗</t>
+  </si>
+  <si>
+    <t>instruct</t>
+  </si>
+  <si>
+    <t>vt.教；指示；通知</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>n.仪器；工具；乐器</t>
+  </si>
+  <si>
+    <t>insufficient</t>
+  </si>
+  <si>
+    <t>a.不足的；不适当的</t>
+  </si>
+  <si>
+    <t>insult</t>
+  </si>
+  <si>
+    <t>vt.&amp;n.侮辱，凌辱</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>n.保险；保险费</t>
+  </si>
+  <si>
+    <t>insure</t>
+  </si>
+  <si>
+    <t>vt.给…保险；确保</t>
+  </si>
+  <si>
+    <t>intellectual</t>
+  </si>
+  <si>
+    <t>n.知识分子</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>n.智力；理解力；情报</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>a.聪明的；理智的</t>
+  </si>
+  <si>
+    <t>intend</t>
+  </si>
+  <si>
+    <t>vt.想要，打算；意指</t>
+  </si>
+  <si>
+    <t>intense</t>
+  </si>
+  <si>
+    <t>a.强烈的；紧张的</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>n.强烈，剧烈；强度</t>
+  </si>
+  <si>
+    <t>intensive</t>
+  </si>
+  <si>
+    <t>a.加强的；精耕细作的</t>
+  </si>
+  <si>
+    <t>intention</t>
+  </si>
+  <si>
+    <t>n.意图，意向，目的</t>
+  </si>
+  <si>
+    <t>intentional</t>
+  </si>
+  <si>
+    <t>a.故意的，有意识的</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>n.相互作用；干扰</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>n.兴趣；利益；利息</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>a.有趣的，引人入胜的</t>
+  </si>
+  <si>
+    <t>snowy</t>
+  </si>
+  <si>
+    <t>a.雪的，下雪的</t>
+  </si>
+  <si>
+    <t>soak</t>
+  </si>
+  <si>
+    <t>vt.浸，泡</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>n.肥皂</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>vi.&amp;n.啜泣，呜咽</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>a.清醒的；适度的</t>
+  </si>
+  <si>
+    <t>so-called</t>
+  </si>
+  <si>
+    <t>a.所谓的，号称的</t>
+  </si>
+  <si>
+    <t>soccer</t>
+  </si>
+  <si>
+    <t>n.英式足球</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>a.社会的；社交的</t>
+  </si>
+  <si>
+    <t>socialism</t>
+  </si>
+  <si>
+    <t>n.社会主义</t>
+  </si>
+  <si>
+    <t>socialist</t>
+  </si>
+  <si>
+    <t>a.社会主义的</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>n.社会；团体；社交界</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>n.短袜</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>n.碳酸钠，纯碱；汽水</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>a.软的；柔和的</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>a.太阳的，日光的</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>n.(陆军)士兵，军人</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>n.脚底，鞋底，袜底</t>
+  </si>
+  <si>
+    <t>a.单独的，唯一的</t>
+  </si>
+  <si>
+    <t>solely</t>
+  </si>
+  <si>
+    <t>ad.单独地，唯一地</t>
+  </si>
+  <si>
+    <t>solemn</t>
+  </si>
+  <si>
+    <t>a.庄严的；隆重的</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>a.第二的；次要的</t>
+  </si>
+  <si>
+    <t>secondly</t>
+  </si>
+  <si>
+    <t>ad.第二(点)；其次</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>a.秘密的；隐蔽的</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>n.秘书；书记；大臣</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>n.切片；一段；部门</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>a.安心的；安全的</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>n.安全，安全感</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>n.种(子)，籽，萌芽</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>vt.寻找，探索；试图</t>
+  </si>
+  <si>
+    <t>seize</t>
+  </si>
+  <si>
+    <t>vt.抓住，逮捕；夺取</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>n.选择，挑选；精选物</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>a.自私的，利己的</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>vt.&amp;vi.卖，销售</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>n.卖者；行销货</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>n.半年；学期，半学年</t>
+  </si>
+  <si>
+    <t>semiconductor</t>
+  </si>
+  <si>
+    <t>n.半导体</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>n.参议院，上院</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>a.年少的；地位较高的</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>n.感官；感觉；见识</t>
+  </si>
+  <si>
+    <t>zeal</t>
+  </si>
+  <si>
+    <t>n.热心，热情，热忱</t>
+  </si>
+  <si>
+    <t>zealous</t>
+  </si>
+  <si>
+    <t>a.热心的，热情的</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>n.斑马</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>n.零；零点，零度</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>n.地区，区域，范围</t>
   </si>
 </sst>
 </file>
@@ -73,16 +3115,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -101,7 +3171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,7 +3179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,7 +3200,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,6 +3260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -177,58 +3284,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -251,7 +3306,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +3342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,103 +3372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,25 +3384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +3408,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,9 +3496,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,67 +3574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +3599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,142 +3611,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,51 +4084,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="34.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:2" outlineLevel="0" r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row spans="1:2" outlineLevel="0" r="2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Learning is a cumulative process.</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="3">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Learning is a cumulative process.</t>
-        </is>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1080,13 +4145,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="C519" sqref="C519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
@@ -1097,76 +4162,5686 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
